--- a/2019/Программа Javascript график методработы даты.xlsx
+++ b/2019/Программа Javascript график методработы даты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/teaching/javascript-junior/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48F578C-958F-6A4A-84FC-C162887D5184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F570DC-CF59-EA43-9F3E-59B55F53DD18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1451,18 +1451,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,36 +1506,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2923,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2979,79 +2979,79 @@
       <c r="AC1" s="6"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="101" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="103"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="100" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="91" t="s">
+      <c r="G3" s="112"/>
+      <c r="H3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="91"/>
     </row>
     <row r="4" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="90"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="14" t="s">
         <v>48</v>
       </c>
@@ -3069,10 +3069,10 @@
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="19">
         <f t="shared" ref="F5:I5" si="0">SUM(F6:F8)</f>
         <v>2</v>
@@ -3099,13 +3099,13 @@
       <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="106" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -3141,9 +3141,9 @@
       <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="90"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="25" t="s">
         <v>90</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="34" t="s">
         <v>92</v>
       </c>
@@ -3220,10 +3220,10 @@
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="38">
         <f t="shared" ref="F9:I9" si="2">SUM(F10:F19)</f>
         <v>10</v>
@@ -3248,7 +3248,7 @@
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="107" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -3286,7 +3286,7 @@
       <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="34" t="s">
         <v>103</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="34" t="s">
         <v>106</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="107" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -3396,7 +3396,7 @@
       <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="34" t="s">
         <v>115</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="34" t="s">
         <v>119</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:29" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="107" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -3506,7 +3506,7 @@
       <c r="O16" s="30"/>
     </row>
     <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="34" t="s">
         <v>128</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="90"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="34" t="s">
         <v>132</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="107" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -3616,13 +3616,13 @@
       <c r="O19" s="30"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="36"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="110"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="38">
         <f t="shared" ref="F20:I20" si="4">SUM(F21:F30)</f>
         <v>7</v>
@@ -3647,7 +3647,7 @@
       <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="34" t="s">
         <v>142</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="34" t="s">
         <v>147</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="107" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -3757,7 +3757,7 @@
       <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="34" t="s">
         <v>156</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="34" t="s">
         <v>160</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="107" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="34" t="s">
@@ -3867,7 +3867,7 @@
       <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="34" t="s">
         <v>169</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="34" t="s">
         <v>173</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="107" t="s">
         <v>177</v>
       </c>
       <c r="B29" s="34" t="s">
@@ -3977,7 +3977,7 @@
       <c r="O29" s="30"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="34" t="s">
         <v>181</v>
       </c>
@@ -4013,13 +4013,13 @@
       <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="38">
         <f t="shared" ref="F31:I31" si="6">SUM(F32)</f>
         <v>0</v>
@@ -4044,7 +4044,7 @@
       <c r="O31" s="23"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="34" t="s">
         <v>186</v>
       </c>
@@ -4080,15 +4080,15 @@
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="98" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="110"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="38">
         <f t="shared" ref="F33:I33" si="7">SUM(F34:F38)</f>
         <v>3</v>
@@ -4113,7 +4113,7 @@
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="34" t="s">
         <v>191</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="34" t="s">
         <v>195</v>
       </c>
@@ -4185,11 +4185,11 @@
       <c r="O35" s="30"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
-      <c r="B36" s="112" t="s">
+      <c r="A36" s="100"/>
+      <c r="B36" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="106" t="s">
         <v>200</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -4221,11 +4221,11 @@
       <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="25" t="s">
         <v>204</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="O37" s="30"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="24" t="s">
         <v>206</v>
       </c>
@@ -4291,13 +4291,13 @@
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="89"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="36"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="109" t="s">
+      <c r="D39" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="110"/>
+      <c r="E39" s="89"/>
       <c r="F39" s="38">
         <f t="shared" ref="F39:I39" si="9">SUM(F40:F43)</f>
         <v>1</v>
@@ -4322,11 +4322,11 @@
       <c r="O39" s="62"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
-      <c r="B40" s="112" t="s">
+      <c r="A40" s="99"/>
+      <c r="B40" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="115">
         <v>28</v>
       </c>
       <c r="D40" s="63">
@@ -4358,9 +4358,9 @@
       <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="89"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="90"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="100"/>
       <c r="D41" s="63">
         <v>43502</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="34" t="s">
         <v>214</v>
       </c>
@@ -4464,15 +4464,15 @@
       <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="107" t="s">
         <v>218</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="110"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="38">
         <f t="shared" ref="F44:I44" si="11">SUM(F45:F48)</f>
         <v>5</v>
@@ -4497,7 +4497,7 @@
       <c r="O44" s="62"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="69">
         <v>43780</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="O45" s="30"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="89"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="69">
         <v>43782</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="O46" s="30"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="69">
         <v>43784</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="107" t="s">
         <v>229</v>
       </c>
       <c r="B48" s="69">
@@ -4643,13 +4643,13 @@
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="89"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="109" t="s">
+      <c r="D49" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="E49" s="110"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="38">
         <f t="shared" ref="F49:G49" si="13">SUM(F50:F56)</f>
         <v>7</v>
@@ -4674,7 +4674,7 @@
       <c r="O49" s="62"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="89"/>
+      <c r="A50" s="99"/>
       <c r="B50" s="34" t="s">
         <v>234</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="34" t="s">
         <v>238</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="107" t="s">
         <v>242</v>
       </c>
       <c r="B52" s="34" t="s">
@@ -4784,7 +4784,7 @@
       <c r="O52" s="30"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="89"/>
+      <c r="A53" s="99"/>
       <c r="B53" s="34" t="s">
         <v>246</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="O53" s="30"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="34" t="s">
         <v>250</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="O54" s="30"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="107" t="s">
         <v>254</v>
       </c>
       <c r="B55" s="34" t="s">
@@ -4898,7 +4898,7 @@
       <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="89"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="34" t="s">
         <v>259</v>
       </c>
@@ -4938,17 +4938,17 @@
       <c r="O56" s="30"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="90"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="70">
         <v>43805</v>
       </c>
       <c r="C57" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="D57" s="109" t="s">
+      <c r="D57" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="E57" s="110"/>
+      <c r="E57" s="89"/>
       <c r="F57" s="72">
         <v>6</v>
       </c>
@@ -12711,17 +12711,20 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:O3"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F2:I2"/>
@@ -12738,20 +12741,17 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:O3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/2019/Программа Javascript график методработы даты.xlsx
+++ b/2019/Программа Javascript график методработы даты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/teaching/javascript-junior/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vipersteel/Projects/javascript-junior/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48F578C-958F-6A4A-84FC-C162887D5184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACABCE7-CC8B-5447-A522-8EA3AEC44EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3060" yWindow="1420" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание курса" sheetId="1" r:id="rId1"/>
@@ -459,9 +459,6 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>Управление состоянием приложения</t>
-  </si>
-  <si>
     <t>Ковалёв Станислав</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>Вводная по Redux. Архитектура Flux</t>
-  </si>
-  <si>
     <t>6 неделя</t>
   </si>
   <si>
@@ -489,9 +483,6 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>Immutable, Action, Action Creators</t>
-  </si>
-  <si>
     <t>02.10.2019</t>
   </si>
   <si>
@@ -501,9 +492,6 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>Pure and Impure Functions, Reducer, combineReducers()</t>
-  </si>
-  <si>
     <t>04.10.2019</t>
   </si>
   <si>
@@ -823,6 +811,18 @@
   </si>
   <si>
     <t>На практику (выполнение ДЗ) было вначале заложено 79 часов, и общее кол-во всех часов 167 часов).</t>
+  </si>
+  <si>
+    <t>Управление состоянием приложения. Архитектура Flux</t>
+  </si>
+  <si>
+    <t>Action, Action Creators</t>
+  </si>
+  <si>
+    <t>Вводная по Redux. Immutable</t>
+  </si>
+  <si>
+    <t>Reducer, combineReducers(), Pure and Impure Functions</t>
   </si>
 </sst>
 </file>
@@ -1479,28 +1479,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2923,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="165" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2988,10 +2988,10 @@
       <c r="C2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="112" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="97" t="s">
@@ -3006,12 +3006,12 @@
       <c r="K2" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="110"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
@@ -3031,10 +3031,10 @@
       </c>
       <c r="J3" s="92"/>
       <c r="K3" s="89"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
@@ -3102,10 +3102,10 @@
       <c r="A6" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="104" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -3142,7 +3142,7 @@
     </row>
     <row r="7" spans="1:29" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="89"/>
-      <c r="B7" s="106"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="90"/>
       <c r="D7" s="25" t="s">
         <v>90</v>
@@ -3220,10 +3220,10 @@
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="38">
         <f t="shared" ref="F9:I9" si="2">SUM(F10:F19)</f>
         <v>10</v>
@@ -3619,10 +3619,10 @@
       <c r="A20" s="89"/>
       <c r="B20" s="36"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="110"/>
+      <c r="E20" s="103"/>
       <c r="F20" s="38">
         <f t="shared" ref="F20:I20" si="4">SUM(F21:F30)</f>
         <v>7</v>
@@ -3658,7 +3658,7 @@
         <v>144</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="F21" s="33">
         <v>2</v>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
@@ -3685,16 +3685,16 @@
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="90"/>
       <c r="B22" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="D22" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>149</v>
-      </c>
       <c r="E22" s="26" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="F22" s="33">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="D23" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>154</v>
-      </c>
       <c r="E23" s="40" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="F23" s="33">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -3759,16 +3759,16 @@
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="89"/>
       <c r="B24" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="F24" s="33">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
@@ -3795,16 +3795,16 @@
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="90"/>
       <c r="B25" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F25" s="33">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -3830,19 +3830,19 @@
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>164</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>168</v>
       </c>
       <c r="F26" s="43">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -3869,16 +3869,16 @@
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="89"/>
       <c r="B27" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F27" s="46">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -3905,16 +3905,16 @@
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="90"/>
       <c r="B28" s="34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F28" s="54">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -3940,19 +3940,19 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="88" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C29" s="56">
         <v>21</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F29" s="33">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -3979,16 +3979,16 @@
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="89"/>
       <c r="B30" s="34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F30" s="57">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
@@ -4016,10 +4016,10 @@
       <c r="A31" s="89"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="110"/>
+      <c r="D31" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="103"/>
       <c r="F31" s="38">
         <f t="shared" ref="F31:I31" si="6">SUM(F32)</f>
         <v>0</v>
@@ -4046,16 +4046,16 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90"/>
       <c r="B32" s="34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D32" s="60">
         <v>43469</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F32" s="33">
         <v>0</v>
@@ -4081,14 +4081,14 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="94" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="110"/>
+      <c r="D33" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="103"/>
       <c r="F33" s="38">
         <f t="shared" ref="F33:I33" si="7">SUM(F34:F38)</f>
         <v>3</v>
@@ -4115,16 +4115,16 @@
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="89"/>
       <c r="B34" s="34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F34" s="27">
         <v>2</v>
@@ -4151,16 +4151,16 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="89"/>
       <c r="B35" s="34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F35" s="33">
         <v>1</v>
@@ -4186,17 +4186,17 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90"/>
-      <c r="B36" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="108" t="s">
-        <v>200</v>
+      <c r="B36" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>196</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F36" s="33">
         <v>0</v>
@@ -4222,15 +4222,15 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" s="106"/>
+        <v>199</v>
+      </c>
+      <c r="B37" s="107"/>
       <c r="C37" s="90"/>
       <c r="D37" s="25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F37" s="33">
         <v>0</v>
@@ -4257,16 +4257,16 @@
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="89"/>
       <c r="B38" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F38" s="33">
         <v>0</v>
@@ -4294,10 +4294,10 @@
       <c r="A39" s="89"/>
       <c r="B39" s="36"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="109" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="110"/>
+      <c r="D39" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="103"/>
       <c r="F39" s="38">
         <f t="shared" ref="F39:I39" si="9">SUM(F40:F43)</f>
         <v>1</v>
@@ -4323,17 +4323,17 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="89"/>
-      <c r="B40" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="111">
+      <c r="B40" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="105">
         <v>28</v>
       </c>
       <c r="D40" s="63">
         <v>43471</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F40" s="33">
         <v>1</v>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="89"/>
-      <c r="B41" s="106"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="90"/>
       <c r="D41" s="63">
         <v>43502</v>
       </c>
       <c r="E41" s="66" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F41" s="33">
         <v>0</v>
@@ -4392,7 +4392,7 @@
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="90"/>
       <c r="B42" s="34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C42" s="67">
         <v>29</v>
@@ -4401,7 +4401,7 @@
         <v>43530</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F42" s="33">
         <v>0</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B43" s="69">
         <v>43777</v>
@@ -4439,7 +4439,7 @@
         <v>43561</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F43" s="33">
         <v>0</v>
@@ -4465,14 +4465,14 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="109" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="110"/>
+      <c r="D44" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="103"/>
       <c r="F44" s="38">
         <f t="shared" ref="F44:I44" si="11">SUM(F45:F48)</f>
         <v>5</v>
@@ -4502,13 +4502,13 @@
         <v>43780</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F45" s="27">
         <v>2</v>
@@ -4538,13 +4538,13 @@
         <v>43782</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F46" s="33">
         <v>1</v>
@@ -4574,13 +4574,13 @@
         <v>43784</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F47" s="33">
         <v>1</v>
@@ -4606,19 +4606,19 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="88" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B48" s="69">
         <v>43787</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F48" s="33">
         <v>1</v>
@@ -4646,10 +4646,10 @@
       <c r="A49" s="89"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="109" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="110"/>
+      <c r="D49" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="103"/>
       <c r="F49" s="38">
         <f t="shared" ref="F49:G49" si="13">SUM(F50:F56)</f>
         <v>7</v>
@@ -4676,16 +4676,16 @@
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="89"/>
       <c r="B50" s="34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F50" s="33">
         <v>2</v>
@@ -4712,16 +4712,16 @@
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="90"/>
       <c r="B51" s="34" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F51" s="33">
         <v>1</v>
@@ -4747,19 +4747,19 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="88" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F52" s="33">
         <v>0</v>
@@ -4786,16 +4786,16 @@
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="89"/>
       <c r="B53" s="34" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F53" s="33">
         <v>1</v>
@@ -4826,16 +4826,16 @@
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="90"/>
       <c r="B54" s="34" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F54" s="33">
         <v>2</v>
@@ -4861,19 +4861,19 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" s="40" t="s">
         <v>254</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="F55" s="33">
         <v>0</v>
@@ -4900,16 +4900,16 @@
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="89"/>
       <c r="B56" s="34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F56" s="33">
         <v>1</v>
@@ -4943,12 +4943,12 @@
         <v>43805</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="109" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="110"/>
+        <v>259</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="103"/>
       <c r="F57" s="72">
         <v>6</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="C58" s="73"/>
       <c r="D58" s="75"/>
       <c r="E58" s="76" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F58" s="76">
         <f t="shared" ref="F58:G58" si="14">SUM(F5,F9,F20,F31,F33,F39,F44,F49,F57)</f>
@@ -5025,7 +5025,7 @@
       <c r="D60" s="82"/>
       <c r="E60" s="83"/>
       <c r="H60" s="85" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J60" s="80"/>
     </row>
